--- a/data/case1/5/P1_6.xlsx
+++ b/data/case1/5/P1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.33747622854374981</v>
+        <v>0.33759270822881149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992796107051</v>
+        <v>-0.0099999992771842017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999271376069</v>
+        <v>-0.0089999992689957509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061999999523905558</v>
+        <v>0.06199999951512325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992837287408</v>
+        <v>-0.0059999992814816494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999992619879094</v>
+        <v>-0.0059999992595152207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999914242423</v>
+        <v>-0.019999999137638724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999913951811</v>
+        <v>-0.019999999134614477</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999992560726412</v>
+        <v>-0.0059999992534551794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992555148651</v>
+        <v>-0.0059999992528005919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999268187338</v>
+        <v>-0.0044999992657253074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992557959736</v>
+        <v>-0.0059999992531132307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.018842509384571215</v>
+        <v>0.01840044926722495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999207990442</v>
+        <v>-0.011999999204323153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999992590737961</v>
+        <v>-0.0059999992564492288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.047019201373045938</v>
+        <v>-0.046752196997073003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992729569129</v>
+        <v>-0.005999999270468237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.065864870096818962</v>
+        <v>0.065788871361129431</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999992861122813</v>
+        <v>-0.0089999992838016851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992613982727</v>
+        <v>-0.008999999258940683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.082261859425579065</v>
+        <v>-0.082145613045515375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999992553972952</v>
+        <v>-0.0089999992528411177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999992646792037</v>
+        <v>-0.0089999992621132563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998972729102</v>
+        <v>-0.0419999989644948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.054066392084306969</v>
+        <v>-0.054033268850790961</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992590817897</v>
+        <v>-0.0059999992566162064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992550556769</v>
+        <v>-0.0059999992524861767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992383605871</v>
+        <v>-0.0059999992357147036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999176095955</v>
+        <v>-0.011999999172374487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999103324839</v>
+        <v>-0.019999999098227139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999137870645</v>
+        <v>-0.014999999133458175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999086009247</v>
+        <v>-0.020999999080583365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992124248891</v>
+        <v>-0.0059999992094867949</v>
       </c>
     </row>
   </sheetData>
